--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H2">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I2">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J2">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N2">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O2">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P2">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q2">
-        <v>23.35459182552889</v>
+        <v>28.37598060876089</v>
       </c>
       <c r="R2">
-        <v>210.19132642976</v>
+        <v>255.383825478848</v>
       </c>
       <c r="S2">
-        <v>0.001709270280033807</v>
+        <v>0.001730733761084179</v>
       </c>
       <c r="T2">
-        <v>0.001787528692113861</v>
+        <v>0.001789354036078382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H3">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I3">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J3">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>252.039825</v>
       </c>
       <c r="O3">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P3">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q3">
-        <v>44.235873743275</v>
+        <v>51.63041416010001</v>
       </c>
       <c r="R3">
-        <v>398.122863689475</v>
+        <v>464.6737274409001</v>
       </c>
       <c r="S3">
-        <v>0.003237524546160441</v>
+        <v>0.00314908944003348</v>
       </c>
       <c r="T3">
-        <v>0.003385753608007644</v>
+        <v>0.003255749686171202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H4">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I4">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J4">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N4">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O4">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P4">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q4">
-        <v>50.18853112578521</v>
+        <v>78.71846639236178</v>
       </c>
       <c r="R4">
-        <v>451.696780132067</v>
+        <v>708.4661975312561</v>
       </c>
       <c r="S4">
-        <v>0.00367318621077693</v>
+        <v>0.004801268695678749</v>
       </c>
       <c r="T4">
-        <v>0.003841361907439759</v>
+        <v>0.004963888561073549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H5">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I5">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J5">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N5">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O5">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P5">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q5">
-        <v>16.67702777306767</v>
+        <v>21.62499414569266</v>
       </c>
       <c r="R5">
-        <v>100.062166638406</v>
+        <v>129.749964874156</v>
       </c>
       <c r="S5">
-        <v>0.001220554319456936</v>
+        <v>0.001318971420485206</v>
       </c>
       <c r="T5">
-        <v>0.000850958014773271</v>
+        <v>0.000909096818850137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5265343333333333</v>
+        <v>0.6145506666666667</v>
       </c>
       <c r="H6">
-        <v>1.579603</v>
+        <v>1.843652</v>
       </c>
       <c r="I6">
-        <v>0.01258949710924503</v>
+        <v>0.01499332276776837</v>
       </c>
       <c r="J6">
-        <v>0.01274042434033606</v>
+        <v>0.0150466009943551</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N6">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O6">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P6">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q6">
-        <v>37.56040248927733</v>
+        <v>65.47087442367867</v>
       </c>
       <c r="R6">
-        <v>338.043622403496</v>
+        <v>589.2378698131081</v>
       </c>
       <c r="S6">
-        <v>0.002748961752816918</v>
+        <v>0.003993259450486756</v>
       </c>
       <c r="T6">
-        <v>0.002874822118001528</v>
+        <v>0.00412851189218183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>118.760237</v>
       </c>
       <c r="I7">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J7">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N7">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O7">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P7">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q7">
-        <v>1755.882243980338</v>
+        <v>1827.860237291987</v>
       </c>
       <c r="R7">
-        <v>15802.94019582304</v>
+        <v>16450.74213562789</v>
       </c>
       <c r="S7">
-        <v>0.1285090896597887</v>
+        <v>0.1114865232973785</v>
       </c>
       <c r="T7">
-        <v>0.1343928386561321</v>
+        <v>0.1152625926159466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>118.760237</v>
       </c>
       <c r="I8">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J8">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>252.039825</v>
       </c>
       <c r="O8">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P8">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q8">
         <v>3325.812150048725</v>
@@ -948,10 +948,10 @@
         <v>29932.30935043852</v>
       </c>
       <c r="S8">
-        <v>0.2434087440928711</v>
+        <v>0.2028509763407484</v>
       </c>
       <c r="T8">
-        <v>0.2545531382952507</v>
+        <v>0.209721576708819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>118.760237</v>
       </c>
       <c r="I9">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J9">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N9">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O9">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P9">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q9">
-        <v>3773.354349909521</v>
+        <v>5070.709507560765</v>
       </c>
       <c r="R9">
-        <v>33960.18914918569</v>
+        <v>45636.38556804688</v>
       </c>
       <c r="S9">
-        <v>0.2761633555627586</v>
+        <v>0.3092773517993032</v>
       </c>
       <c r="T9">
-        <v>0.2888074095391803</v>
+        <v>0.3197526333357291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>118.760237</v>
       </c>
       <c r="I10">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J10">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N10">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O10">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P10">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q10">
-        <v>1253.838952436212</v>
+        <v>1392.990341922485</v>
       </c>
       <c r="R10">
-        <v>7523.033714617273</v>
+        <v>8357.942051534908</v>
       </c>
       <c r="S10">
-        <v>0.09176566532861703</v>
+        <v>0.08496254092043928</v>
       </c>
       <c r="T10">
-        <v>0.06397808532366876</v>
+        <v>0.05856015867560056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>118.760237</v>
       </c>
       <c r="I11">
-        <v>0.9465236900694383</v>
+        <v>0.9658062179400816</v>
       </c>
       <c r="J11">
-        <v>0.9578709423436643</v>
+        <v>0.9692381751729973</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N11">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O11">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P11">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q11">
-        <v>2823.926202623043</v>
+        <v>4217.355858455563</v>
       </c>
       <c r="R11">
-        <v>25415.33582360738</v>
+        <v>37956.20272610007</v>
       </c>
       <c r="S11">
-        <v>0.2066768354254028</v>
+        <v>0.2572288255822123</v>
       </c>
       <c r="T11">
-        <v>0.2161394705294326</v>
+        <v>0.2659412138369023</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H12">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I12">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J12">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N12">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O12">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P12">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q12">
-        <v>4.227252931662223</v>
+        <v>8.257737696775111</v>
       </c>
       <c r="R12">
-        <v>38.04527638496</v>
+        <v>74.319639270976</v>
       </c>
       <c r="S12">
-        <v>0.000309383176390084</v>
+        <v>0.000503663489873321</v>
       </c>
       <c r="T12">
-        <v>0.0003235481896073573</v>
+        <v>0.0005207226661283787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H13">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I13">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J13">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>252.039825</v>
       </c>
       <c r="O13">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P13">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q13">
-        <v>8.006829165025001</v>
+        <v>15.0250461187</v>
       </c>
       <c r="R13">
-        <v>72.06146248522501</v>
+        <v>135.2254150683</v>
       </c>
       <c r="S13">
-        <v>0.000586001897670725</v>
+        <v>0.0009164213543144383</v>
       </c>
       <c r="T13">
-        <v>0.0006128318136432316</v>
+        <v>0.0009474607163517399</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H14">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I14">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J14">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N14">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O14">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P14">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q14">
-        <v>9.084278454628555</v>
+        <v>22.90798180063022</v>
       </c>
       <c r="R14">
-        <v>81.758506091657</v>
+        <v>206.171836205672</v>
       </c>
       <c r="S14">
-        <v>0.0006648579985489165</v>
+        <v>0.001397224576916004</v>
       </c>
       <c r="T14">
-        <v>0.0006952983167554277</v>
+        <v>0.001444548833696069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H15">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I15">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J15">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N15">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O15">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P15">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q15">
-        <v>3.018593305837667</v>
+        <v>6.293122757995332</v>
       </c>
       <c r="R15">
-        <v>18.111559835026</v>
+        <v>37.75873654797199</v>
       </c>
       <c r="S15">
-        <v>0.0002209240848104815</v>
+        <v>0.0003838358987511768</v>
       </c>
       <c r="T15">
-        <v>0.0001540260172194344</v>
+        <v>0.0002645576614441071</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.09530433333333334</v>
+        <v>0.1788413333333333</v>
       </c>
       <c r="H16">
-        <v>0.285913</v>
+        <v>0.536524</v>
       </c>
       <c r="I16">
-        <v>0.002278737687251528</v>
+        <v>0.004363229885387348</v>
       </c>
       <c r="J16">
-        <v>0.002306055980153561</v>
+        <v>0.004378734463931031</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N16">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O16">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P16">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q16">
-        <v>6.798548342157334</v>
+        <v>19.05277971617733</v>
       </c>
       <c r="R16">
-        <v>61.186935079416</v>
+        <v>171.475017445596</v>
       </c>
       <c r="S16">
-        <v>0.0004975705298313205</v>
+        <v>0.001162084565532409</v>
       </c>
       <c r="T16">
-        <v>0.0005203516429281097</v>
+        <v>0.001201444586310738</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H17">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I17">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J17">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N17">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O17">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P17">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q17">
-        <v>65.9278427288</v>
+        <v>20.10414459069867</v>
       </c>
       <c r="R17">
-        <v>395.5670563728</v>
+        <v>120.624867544192</v>
       </c>
       <c r="S17">
-        <v>0.004825111183484741</v>
+        <v>0.001226210373505026</v>
       </c>
       <c r="T17">
-        <v>0.003364018272931399</v>
+        <v>0.0008451615648990934</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H18">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I18">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J18">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>252.039825</v>
       </c>
       <c r="O18">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P18">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q18">
-        <v>124.8737613958125</v>
+        <v>36.57971598810001</v>
       </c>
       <c r="R18">
-        <v>749.2425683748751</v>
+        <v>219.4782959286</v>
       </c>
       <c r="S18">
-        <v>0.009139230978833925</v>
+        <v>0.002231103492223593</v>
       </c>
       <c r="T18">
-        <v>0.006371778565138482</v>
+        <v>0.001537780922167183</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H19">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I19">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J19">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N19">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O19">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P19">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q19">
-        <v>141.6775600947725</v>
+        <v>55.77137411143734</v>
       </c>
       <c r="R19">
-        <v>850.0653605686349</v>
+        <v>334.628244668624</v>
       </c>
       <c r="S19">
-        <v>0.01036906337849106</v>
+        <v>0.003401658656579403</v>
       </c>
       <c r="T19">
-        <v>0.007229205162736955</v>
+        <v>0.002344582312763653</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H20">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I20">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J20">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N20">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O20">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P20">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q20">
-        <v>47.0776998553575</v>
+        <v>15.321127226306</v>
       </c>
       <c r="R20">
-        <v>188.31079942143</v>
+        <v>61.28450890522399</v>
       </c>
       <c r="S20">
-        <v>0.003445511435877647</v>
+        <v>0.0009344802040161712</v>
       </c>
       <c r="T20">
-        <v>0.001601450272560082</v>
+        <v>0.0004293916545146536</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.4863575</v>
+        <v>0.435404</v>
       </c>
       <c r="H21">
-        <v>2.972715</v>
+        <v>0.870808</v>
       </c>
       <c r="I21">
-        <v>0.03553898058478239</v>
+        <v>0.01062264360038242</v>
       </c>
       <c r="J21">
-        <v>0.02397668942315387</v>
+        <v>0.007106927185115398</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N21">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O21">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P21">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q21">
-        <v>106.02952629798</v>
+        <v>46.385566160372</v>
       </c>
       <c r="R21">
-        <v>636.17715778788</v>
+        <v>278.313396962232</v>
       </c>
       <c r="S21">
-        <v>0.007760063608095019</v>
+        <v>0.002829190874058231</v>
       </c>
       <c r="T21">
-        <v>0.005410237149786947</v>
+        <v>0.001950010730770815</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H22">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I22">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J22">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N22">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O22">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P22">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q22">
-        <v>5.693432378631111</v>
+        <v>7.976417700611555</v>
       </c>
       <c r="R22">
-        <v>51.24089140768</v>
+        <v>71.787759305504</v>
       </c>
       <c r="S22">
-        <v>0.0004166895670400336</v>
+        <v>0.0004865049633807418</v>
       </c>
       <c r="T22">
-        <v>0.0004357675702252487</v>
+        <v>0.0005029829771461626</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H23">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I23">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J23">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>252.039825</v>
       </c>
       <c r="O23">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P23">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q23">
-        <v>10.783915974575</v>
+        <v>14.51318123855</v>
       </c>
       <c r="R23">
-        <v>97.05524377117499</v>
+        <v>130.61863114695</v>
       </c>
       <c r="S23">
-        <v>0.0007892506628000305</v>
+        <v>0.0008852012234085344</v>
       </c>
       <c r="T23">
-        <v>0.0008253862607363845</v>
+        <v>0.0009151831537944691</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H24">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I24">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J24">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N24">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O24">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P24">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q24">
-        <v>12.23506753113677</v>
+        <v>22.12756547004311</v>
       </c>
       <c r="R24">
-        <v>110.115607780231</v>
+        <v>199.148089230388</v>
       </c>
       <c r="S24">
-        <v>0.0008954571958015838</v>
+        <v>0.001349624710336185</v>
       </c>
       <c r="T24">
-        <v>0.0009364554270629992</v>
+        <v>0.001395336750765395</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H25">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I25">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J25">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N25">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O25">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P25">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q25">
-        <v>4.065561522626333</v>
+        <v>6.078732166389665</v>
       </c>
       <c r="R25">
-        <v>24.393369135758</v>
+        <v>36.47239299833799</v>
       </c>
       <c r="S25">
-        <v>0.000297549344222667</v>
+        <v>0.0003707595917129568</v>
       </c>
       <c r="T25">
-        <v>0.0002074483660583554</v>
+        <v>0.0002555448587812711</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1283596666666666</v>
+        <v>0.1727486666666667</v>
       </c>
       <c r="H26">
-        <v>0.3850789999999999</v>
+        <v>0.518246</v>
       </c>
       <c r="I26">
-        <v>0.003069094549282932</v>
+        <v>0.004214585806380427</v>
       </c>
       <c r="J26">
-        <v>0.003105887912692157</v>
+        <v>0.004229562183601108</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N26">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O26">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P26">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q26">
-        <v>9.156555305458665</v>
+        <v>18.40370025719266</v>
       </c>
       <c r="R26">
-        <v>82.40899774912798</v>
+        <v>165.633302314734</v>
       </c>
       <c r="S26">
-        <v>0.0006701477794186171</v>
+        <v>0.001122495317542009</v>
       </c>
       <c r="T26">
-        <v>0.0007008302886091696</v>
+        <v>0.001160514443113811</v>
       </c>
     </row>
   </sheetData>
